--- a/URS_Certifications 21.11.24.xlsx
+++ b/URS_Certifications 21.11.24.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\черновики\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\сайт\сайт2\Сайт на практику\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1A5FD104-9823-4CEC-B2C2-7334EAA6F68B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E104E14-4945-4422-9BD3-74DD3D46270B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="URS_Certifications 21.11.24" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5834" uniqueCount="736">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5836" uniqueCount="736">
   <si>
     <t>Название компании</t>
   </si>
@@ -2233,7 +2233,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -3087,11 +3087,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G1363"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3510,6 +3510,9 @@
       <c r="E18" t="s">
         <v>16</v>
       </c>
+      <c r="F18" t="s">
+        <v>11</v>
+      </c>
       <c r="G18" s="1">
         <v>46709</v>
       </c>
@@ -3529,6 +3532,9 @@
       </c>
       <c r="E19" t="s">
         <v>26</v>
+      </c>
+      <c r="F19" t="s">
+        <v>11</v>
       </c>
       <c r="G19" s="1">
         <v>46709</v>
